--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/165.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/165.xlsx
@@ -479,13 +479,13 @@
         <v>-2.355261336636372</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.20667000424152</v>
+        <v>-13.48771928599097</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.087318464844442</v>
+        <v>-1.545431233579279</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.65750699483756</v>
+        <v>-10.56499359960404</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.558064327200118</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.48348056322413</v>
+        <v>-13.80463156857779</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9326329067694485</v>
+        <v>-1.374576681494754</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.57283907236012</v>
+        <v>-10.48315361454041</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.684705357028404</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.94964509820663</v>
+        <v>-14.39345788888442</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.789324559863915</v>
+        <v>-1.212480880011343</v>
       </c>
       <c r="G4" t="n">
-        <v>-11.19915856465157</v>
+        <v>-10.16731490078661</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.684613780262044</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.55124950608678</v>
+        <v>-15.04812540018209</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7128916958739182</v>
+        <v>-1.183978936724906</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.16037916363438</v>
+        <v>-10.17332426779097</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.544059842837517</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.12791307705345</v>
+        <v>-15.70334278819912</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5281200258686383</v>
+        <v>-0.9654553099936558</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.77104026172713</v>
+        <v>-9.741723412310625</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.249553536666218</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.81654202192256</v>
+        <v>-16.45446129453178</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4417762886274548</v>
+        <v>-0.8951234591279034</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.62690709974257</v>
+        <v>-9.622648917965126</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.805612848200187</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.4687219956803</v>
+        <v>-17.13450168873672</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.289827021846382</v>
+        <v>-0.753242173232118</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.20653944010042</v>
+        <v>-9.133572853009607</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.22376962069208</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.24207123223822</v>
+        <v>-17.94071260542737</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3291432072800854</v>
+        <v>-0.765378737966398</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.04486259230795</v>
+        <v>-8.948892829124219</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.5301019769506615</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.79609821159154</v>
+        <v>-18.58438258233799</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.144725029451532</v>
+        <v>-0.6420099682888133</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.747353102532568</v>
+        <v>-8.643580326855167</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.241925970145499</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.4333791447154</v>
+        <v>-19.25358254978997</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08022691797500527</v>
+        <v>-0.4265106635140022</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.392525510916107</v>
+        <v>-8.293767087227089</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.056512893496596</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.03337319934602</v>
+        <v>-19.86889459874541</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1109076112113536</v>
+        <v>-0.6468279357345684</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.867890751442459</v>
+        <v>-7.773937202896355</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>1.87264507747933</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.79509647098048</v>
+        <v>-20.72553706598239</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09862160346763039</v>
+        <v>-0.3934133219301187</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.23893652292594</v>
+        <v>-7.149264157409079</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>2.646745300325609</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.58151182577445</v>
+        <v>-21.46095790120783</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3274488725353186</v>
+        <v>-0.1956148105973213</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.943849109176276</v>
+        <v>-6.87537318196017</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>3.34332966787522</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.44627152077329</v>
+        <v>-22.32168516693143</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5024275000149875</v>
+        <v>-0.05283015580545677</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.258139747840874</v>
+        <v>-6.261527470923001</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>3.935214689351523</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.50211337574713</v>
+        <v>-23.33209673104448</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7759257063786451</v>
+        <v>0.2202883737757907</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.885951762656284</v>
+        <v>-5.819766988437481</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>4.406606744206524</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.1703968820002</v>
+        <v>-24.03589965490715</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9093624569415172</v>
+        <v>0.3621434750658927</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.738100386664672</v>
+        <v>-5.609007097291374</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>4.758472365162557</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.07236490167523</v>
+        <v>-24.96787523269542</v>
       </c>
       <c r="F18" t="n">
-        <v>1.222962386909382</v>
+        <v>0.6059352462816738</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.197990525232105</v>
+        <v>-5.06816406689967</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>4.999476695526423</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.86848165287491</v>
+        <v>-25.81499959576646</v>
       </c>
       <c r="F19" t="n">
-        <v>1.320853535256967</v>
+        <v>0.6860077704616705</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.09995536155326</v>
+        <v>-4.892478455066549</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>5.142768897854947</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.62791377151207</v>
+        <v>-26.56272719566312</v>
       </c>
       <c r="F20" t="n">
-        <v>1.464502282036386</v>
+        <v>0.8352076536459807</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.790296214740756</v>
+        <v>-4.561007531719728</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>5.206600521752469</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.26999957977884</v>
+        <v>-27.19050311692389</v>
       </c>
       <c r="F21" t="n">
-        <v>1.720613910226231</v>
+        <v>1.054726295393202</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.538243200431845</v>
+        <v>-4.258640797590064</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>5.206315313160334</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.84839133472062</v>
+        <v>-27.79824781483681</v>
       </c>
       <c r="F22" t="n">
-        <v>1.840460850439392</v>
+        <v>1.134026373705536</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.857273252725147</v>
+        <v>-3.697491605490843</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>5.15599556609557</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.2558761683665</v>
+        <v>-28.20537915630596</v>
       </c>
       <c r="F23" t="n">
-        <v>2.027785519498808</v>
+        <v>1.279822258150998</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.869318171339535</v>
+        <v>-3.632933460178292</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5.067493207997581</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.55406645788965</v>
+        <v>-28.53175717384735</v>
       </c>
       <c r="F24" t="n">
-        <v>1.907990948497015</v>
+        <v>1.182913032516542</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.572463296706238</v>
+        <v>-3.423299507076574</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.945321433178743</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.84614264198572</v>
+        <v>-28.79581582986212</v>
       </c>
       <c r="F25" t="n">
-        <v>2.204845823130312</v>
+        <v>1.49471931699509</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.292091631350674</v>
+        <v>-3.231667470382229</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.794188849420728</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.87290330899421</v>
+        <v>-28.80030648973684</v>
       </c>
       <c r="F26" t="n">
-        <v>2.104166014277438</v>
+        <v>1.414515869786676</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.402983436420094</v>
+        <v>-3.379872338550569</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>4.619502442584711</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.02296728416607</v>
+        <v>-28.94057742238309</v>
       </c>
       <c r="F27" t="n">
-        <v>2.057321754709742</v>
+        <v>1.31396698396222</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.086948338123668</v>
+        <v>-3.111362299569609</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.42473326385793</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.83204223182518</v>
+        <v>-28.78374472664206</v>
       </c>
       <c r="F28" t="n">
-        <v>2.257057926863115</v>
+        <v>1.547952620349548</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.137694103938198</v>
+        <v>-3.224754734481798</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.219876017326498</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.83260520084738</v>
+        <v>-28.81015190147382</v>
       </c>
       <c r="F29" t="n">
-        <v>2.118541362797653</v>
+        <v>1.41765802246869</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.066602899507626</v>
+        <v>-3.18577894892198</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>4.01600107345024</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.64488776270271</v>
+        <v>-28.60304476282055</v>
       </c>
       <c r="F30" t="n">
-        <v>2.177168694922903</v>
+        <v>1.445204227647682</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.046846614519461</v>
+        <v>-3.157826882354895</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.821146148970266</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.22721711744596</v>
+        <v>-28.21517219883157</v>
       </c>
       <c r="F31" t="n">
-        <v>2.058185846697296</v>
+        <v>1.343084265482218</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.335204584608478</v>
+        <v>-3.515587149807901</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.646374809184476</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.11119312966258</v>
+        <v>-28.1633135872755</v>
       </c>
       <c r="F32" t="n">
-        <v>2.045983820448808</v>
+        <v>1.332243838729269</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.568182113676993</v>
+        <v>-3.741141343165158</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>3.498037302060852</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.53462120481581</v>
+        <v>-27.595238566973</v>
       </c>
       <c r="F33" t="n">
-        <v>1.976175661696724</v>
+        <v>1.275881474995638</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.842164735245795</v>
+        <v>-4.086621030552625</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>3.375137938169608</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.96492273896094</v>
+        <v>-26.99637045038677</v>
       </c>
       <c r="F34" t="n">
-        <v>2.05017335735816</v>
+        <v>1.363874842394879</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.734454359766914</v>
+        <v>-4.032222512245253</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>3.277291495174121</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.73880557658149</v>
+        <v>-26.72271513638901</v>
       </c>
       <c r="F35" t="n">
-        <v>1.849756385457017</v>
+        <v>1.166927330746794</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.041809261279276</v>
+        <v>-4.324796203849306</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>3.198830304799653</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.8559261344497</v>
+        <v>-25.8274372834661</v>
       </c>
       <c r="F36" t="n">
-        <v>1.772747460141984</v>
+        <v>1.099632894140322</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.260778026307144</v>
+        <v>-4.483802221862069</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>3.128908060273229</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.36136439460349</v>
+        <v>-25.24107231609371</v>
       </c>
       <c r="F37" t="n">
-        <v>1.656304518667673</v>
+        <v>1.006559713238492</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.505276781876379</v>
+        <v>-4.717211796924361</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>3.06116664702529</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.89904899665646</v>
+        <v>-24.84390421708711</v>
       </c>
       <c r="F38" t="n">
-        <v>1.645621199548824</v>
+        <v>0.9909144113426288</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.665670583990365</v>
+        <v>-4.86813986408378</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.990670026008781</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.43131338533296</v>
+        <v>-24.27698131943469</v>
       </c>
       <c r="F39" t="n">
-        <v>1.540149607855879</v>
+        <v>0.9485215347411199</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.785085478209748</v>
+        <v>-5.024488144619673</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.914399387184264</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.96420620454585</v>
+        <v>-23.82284861076374</v>
       </c>
       <c r="F40" t="n">
-        <v>1.537871547161419</v>
+        <v>0.9089435032505819</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.898163697853736</v>
+        <v>-5.140158640226322</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.838179501706855</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.16139928659405</v>
+        <v>-23.02650929041575</v>
       </c>
       <c r="F41" t="n">
-        <v>1.617551302256164</v>
+        <v>1.052330403973166</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.011464486646034</v>
+        <v>-5.261157703089554</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.769832063963987</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.75985835843831</v>
+        <v>-22.57550564212397</v>
       </c>
       <c r="F42" t="n">
-        <v>1.739178795655799</v>
+        <v>1.16446597781255</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.072186587225959</v>
+        <v>-5.360763943109406</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.716690939477137</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.9373737093154</v>
+        <v>-21.72504274182829</v>
       </c>
       <c r="F43" t="n">
-        <v>1.925508449699244</v>
+        <v>1.360366105233297</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.061437806592902</v>
+        <v>-5.342264519194047</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.689814177877026</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.67725583645599</v>
+        <v>-21.40648082908341</v>
       </c>
       <c r="F44" t="n">
-        <v>1.8901330474209</v>
+        <v>1.330332362514377</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.245528676850412</v>
+        <v>-5.551662810844614</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>2.696028359755864</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.13223636145777</v>
+        <v>-20.85636844827976</v>
       </c>
       <c r="F45" t="n">
-        <v>1.95679905349097</v>
+        <v>1.375972130220634</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.349494653716559</v>
+        <v>-5.692824020084105</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>2.735403919516546</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.64419458842675</v>
+        <v>-20.30441005277543</v>
       </c>
       <c r="F46" t="n">
-        <v>2.112335611250675</v>
+        <v>1.5485024970689</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.287816815029188</v>
+        <v>-5.609871189278929</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>2.805753339185715</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.11021192472411</v>
+        <v>-19.72408063701308</v>
       </c>
       <c r="F47" t="n">
-        <v>1.991624579049961</v>
+        <v>1.446015950423869</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.667140105262517</v>
+        <v>-5.993881523929596</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>2.896915647699307</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.6570349541606</v>
+        <v>-19.19664412473131</v>
       </c>
       <c r="F48" t="n">
-        <v>2.027183273568089</v>
+        <v>1.458453638123508</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.704505537572803</v>
+        <v>-6.005468211944523</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>2.99317142680776</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.97808122109153</v>
+        <v>-18.54145292131997</v>
       </c>
       <c r="F49" t="n">
-        <v>2.042632190921326</v>
+        <v>1.499799130497679</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.15450107854577</v>
+        <v>-6.476228145224467</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>3.080501928036212</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.43299628457911</v>
+        <v>-17.90546812617744</v>
       </c>
       <c r="F50" t="n">
-        <v>2.026816689088521</v>
+        <v>1.500741776302284</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.145794697156022</v>
+        <v>-6.468294209702381</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.143091108032139</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.59529837955411</v>
+        <v>-17.03119032701266</v>
       </c>
       <c r="F51" t="n">
-        <v>2.05829058512003</v>
+        <v>1.536797978328397</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.525811879439963</v>
+        <v>-6.800838701882223</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.166074223908799</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.26601387078185</v>
+        <v>-16.6364835809403</v>
       </c>
       <c r="F52" t="n">
-        <v>1.952216747496365</v>
+        <v>1.436301461715308</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.442099695069966</v>
+        <v>-6.710410166154421</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.140498771840255</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.72253928751897</v>
+        <v>-16.01740094876644</v>
       </c>
       <c r="F53" t="n">
-        <v>2.060254430546289</v>
+        <v>1.596237033229834</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.545960933513379</v>
+        <v>-6.830518952424416</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.060272800583334</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.3784735688384</v>
+        <v>-15.66732586308153</v>
       </c>
       <c r="F54" t="n">
-        <v>1.801655264816516</v>
+        <v>1.335857314313586</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.943207586337032</v>
+        <v>-7.193306664168646</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.924683425232691</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.7997283217199</v>
+        <v>-15.02417957828458</v>
       </c>
       <c r="F55" t="n">
-        <v>1.881230281488527</v>
+        <v>1.393070677731928</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.090941131603069</v>
+        <v>-7.420746149135111</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.740784020825801</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.41016685066434</v>
+        <v>-14.64716053335139</v>
       </c>
       <c r="F56" t="n">
-        <v>1.720613910226231</v>
+        <v>1.292718176450098</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.303023345336189</v>
+        <v>-7.680785468177474</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>2.518635068767952</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.75201678681077</v>
+        <v>-13.9376100885412</v>
       </c>
       <c r="F57" t="n">
-        <v>1.627265790964724</v>
+        <v>1.230123876563806</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.616544721487003</v>
+        <v>-8.054884929576955</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>2.270087345115348</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.54107360342488</v>
+        <v>-13.69350410205722</v>
       </c>
       <c r="F58" t="n">
-        <v>1.505978697438974</v>
+        <v>1.099934017105682</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.656031106857649</v>
+        <v>-8.046244009701416</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>2.009005297783454</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.04843643209641</v>
+        <v>-13.17011311135354</v>
       </c>
       <c r="F59" t="n">
-        <v>1.561987568995878</v>
+        <v>1.151596244119133</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.824476675219296</v>
+        <v>-8.260931591700039</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.746883672136114</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.91532698910459</v>
+        <v>-13.03086337832894</v>
       </c>
       <c r="F60" t="n">
-        <v>1.424832604425956</v>
+        <v>1.055812956529065</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.736378569397322</v>
+        <v>-8.149123325431699</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.493775346320555</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.6209858366169</v>
+        <v>-12.64574019793673</v>
       </c>
       <c r="F61" t="n">
-        <v>1.346226418164233</v>
+        <v>0.9878115355691398</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.949495075054939</v>
+        <v>-8.471966421205822</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.259333768314465</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.30835473705932</v>
+        <v>-12.28697182316491</v>
       </c>
       <c r="F62" t="n">
-        <v>1.345021926302794</v>
+        <v>1.005669436645254</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.252752085777839</v>
+        <v>-8.712563670528223</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.04913473171159</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.87532682056924</v>
+        <v>-11.8610923040264</v>
       </c>
       <c r="F63" t="n">
-        <v>1.295925790646321</v>
+        <v>0.9943707792928446</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.237826860538272</v>
+        <v>-8.680382790143259</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.8663667981496509</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.61702877780482</v>
+        <v>-11.55977295412407</v>
       </c>
       <c r="F64" t="n">
-        <v>1.236447458836359</v>
+        <v>0.9224154828747181</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.429616004866718</v>
+        <v>-8.83777845490649</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.7147858752624213</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.37364286797713</v>
+        <v>-11.29161640731984</v>
       </c>
       <c r="F65" t="n">
-        <v>1.231472383756504</v>
+        <v>0.9423419677998252</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.60287954067412</v>
+        <v>-9.023571324533425</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.5955241454351724</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.16114170055308</v>
+        <v>-11.05334958790327</v>
       </c>
       <c r="F66" t="n">
-        <v>1.036960040436979</v>
+        <v>0.739411273753071</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.619729334431421</v>
+        <v>-8.980929694177924</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.5095883426358918</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.97503461565794</v>
+        <v>-10.86801494887579</v>
       </c>
       <c r="F67" t="n">
-        <v>1.005459959799786</v>
+        <v>0.7176911433386475</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.678906543276023</v>
+        <v>-9.073374444543351</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.4581027178878328</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.85086721550701</v>
+        <v>-10.69265664461371</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9149528702549342</v>
+        <v>0.6696031150009877</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.609831553483076</v>
+        <v>-8.967667191399254</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.4388482855928279</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.67850704859569</v>
+        <v>-10.53629527177498</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7055153016958423</v>
+        <v>0.4297390346377244</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.562738540161387</v>
+        <v>-8.932488173663536</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.4476440263604085</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.56676424384156</v>
+        <v>-10.43099388001898</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8433772506192178</v>
+        <v>0.547949436995669</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.498848102293765</v>
+        <v>-8.835618224937605</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.4789619307821559</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.39567403030588</v>
+        <v>-10.27663562951503</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7491126701587901</v>
+        <v>0.4589872391861404</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.14504171029896</v>
+        <v>-8.525317555285856</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.5240229699014626</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.33183596164962</v>
+        <v>-10.24821224004564</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7808745968528176</v>
+        <v>0.4429229835993425</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.999075625916555</v>
+        <v>-8.343138161243237</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.573507199856197</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.32912585496138</v>
+        <v>-10.2548500375864</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6093130604148391</v>
+        <v>0.2865223338520829</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.959720163574326</v>
+        <v>-8.273185987159895</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.619506889669451</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.44850147227224</v>
+        <v>-10.39246323275578</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7096131924853025</v>
+        <v>0.3937613864286612</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.733223324412466</v>
+        <v>-8.055984683015661</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.6547993870184035</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.50469363606893</v>
+        <v>-10.47074211144646</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5412069010321802</v>
+        <v>0.1542507982421245</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.562303310813732</v>
+        <v>-7.868267244870991</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.6743176780719966</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.87478685279885</v>
+        <v>-10.84162086634687</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6495195224417799</v>
+        <v>0.2643832497467242</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.308063881930254</v>
+        <v>-7.617562737754779</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.6753187639114935</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.26015878694505</v>
+        <v>-11.18092098679305</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5542206500568558</v>
+        <v>0.1661386092224117</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.124365780757994</v>
+        <v>-7.491483861388957</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.6567255230444571</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.82479053160017</v>
+        <v>-11.72575716955148</v>
       </c>
       <c r="F78" t="n">
-        <v>0.528546644184231</v>
+        <v>0.1035704939418028</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.885797838376063</v>
+        <v>-7.232334818939831</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.6194189388094352</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.23721116341738</v>
+        <v>-12.16530505285675</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4161754088936962</v>
+        <v>0.0181170332938568</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.846455468336676</v>
+        <v>-7.18461337508174</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.565550191173646</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.75008903493916</v>
+        <v>-12.6604166694223</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6577153040207004</v>
+        <v>0.1612813648681314</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.554850607142911</v>
+        <v>-6.838609995580603</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.4981189616981625</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.60787053252337</v>
+        <v>-13.50709589419673</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4841768298536214</v>
+        <v>0.03615822660975532</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.527029463604244</v>
+        <v>-6.836043904223625</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.4214383630932696</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.27223944022676</v>
+        <v>-14.18701845767609</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5755611036888694</v>
+        <v>0.08136594832223544</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.373522212785005</v>
+        <v>-6.648627589044316</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3396865216383286</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.03404126567827</v>
+        <v>-14.91356271157483</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4398986616429038</v>
+        <v>-0.08396365196308135</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.124794643397893</v>
+        <v>-6.358292681226199</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2560934321917848</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.12144866280352</v>
+        <v>-16.02871269842169</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4508176422129034</v>
+        <v>-0.1064300436394833</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.916050966889413</v>
+        <v>-6.181232377594696</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1729199962233418</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.94052931318758</v>
+        <v>-16.84716491826935</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5026631614661385</v>
+        <v>-0.08430405183696624</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.666223644063596</v>
+        <v>-5.891264054256147</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.08899109406170626</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.96331310348607</v>
+        <v>-17.83493989076906</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4683613280208163</v>
+        <v>-0.1674663594876102</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.364642448104436</v>
+        <v>-5.600431638930043</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.0002616924215663596</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.98510187876857</v>
+        <v>-18.87067196857801</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5048626683435485</v>
+        <v>-0.1606714543127544</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.974452546512474</v>
+        <v>-5.146940453098336</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.09869770041079198</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.30217445234338</v>
+        <v>-20.17194213262285</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6166185654005223</v>
+        <v>-0.0250744737809975</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.796004458779747</v>
+        <v>-4.957665030915503</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2174378968965152</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.86279004337997</v>
+        <v>-21.7029560269343</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4373194779830838</v>
+        <v>-0.2286205060613127</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.438951175680194</v>
+        <v>-4.616008295957819</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3653628593208238</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.3739690988862</v>
+        <v>-23.21490752830819</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2549436993978397</v>
+        <v>-0.4060604864752261</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.204808431658765</v>
+        <v>-4.359530083288405</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.5489966644485375</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.79456251103053</v>
+        <v>-24.67077160430813</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2118831153514026</v>
+        <v>-0.4376522132323111</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.228832807373332</v>
+        <v>-4.388869933956713</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.7754934860046744</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.50106563263247</v>
+        <v>-26.31128951958777</v>
       </c>
       <c r="F92" t="n">
-        <v>0.05135839020899929</v>
+        <v>-0.6042779514989588</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.932593270973597</v>
+        <v>-4.1380083192064</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.046630176417231</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.44957997226372</v>
+        <v>-28.30266805872283</v>
       </c>
       <c r="F93" t="n">
-        <v>0.07000182945561721</v>
+        <v>-0.5806201602639598</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.970128903220825</v>
+        <v>-4.135023274158486</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.357739580346992</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.59475379288053</v>
+        <v>-30.41326510753465</v>
       </c>
       <c r="F94" t="n">
-        <v>0.07026367551245173</v>
+        <v>-0.5403089598142852</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.030562973138233</v>
+        <v>-4.194226667608772</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.70227316797451</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.76740835716213</v>
+        <v>-32.60547957226179</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3004579717538636</v>
+        <v>-0.9359452593884052</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.179016595060565</v>
+        <v>-4.390244625755095</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.070430127810721</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.85540809126913</v>
+        <v>-34.73665772114079</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4181708666038227</v>
+        <v>-0.9949129913875394</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.303079256788761</v>
+        <v>-4.578184633048072</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.445394219355527</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.1494806721049</v>
+        <v>-37.02545410393135</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.7122632653375154</v>
+        <v>-1.27313751907706</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.500380260613573</v>
+        <v>-4.709304046007959</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.824252259536265</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.59874941082649</v>
+        <v>-39.48363870088815</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.9997178665304529</v>
+        <v>-1.59003670936104</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.75840336501831</v>
+        <v>-5.025666451875428</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.187458133220912</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.97157219325523</v>
+        <v>-41.85894902085683</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.8816383872009255</v>
+        <v>-1.459715926874498</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.132031503515489</v>
+        <v>-5.364442880207931</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.538832404287305</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.51458182032358</v>
+        <v>-44.37823539517597</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.019539613032826</v>
+        <v>-1.632167739905714</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.318531357495877</v>
+        <v>-5.565867959427887</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.851988907558213</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.98261182901737</v>
+        <v>-46.8404131444995</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.16686729691077</v>
+        <v>-1.845179507140597</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.690261112081005</v>
+        <v>-5.977948191371214</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.161961409839513</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.32407854614018</v>
+        <v>-49.18699895203343</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.254035849230982</v>
+        <v>-1.937938472774226</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.978108482359194</v>
+        <v>-6.285800600391561</v>
       </c>
     </row>
   </sheetData>
